--- a/EC/Train Runs 2016-05-11 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-11 (FRA Format).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macosta\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="1819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="1818">
   <si>
     <t>Train ID</t>
   </si>
@@ -5391,9 +5391,6 @@
   </si>
   <si>
     <t>4019/4046</t>
-  </si>
-  <si>
-    <t>4019/4047</t>
   </si>
   <si>
     <t>4019/4048</t>
@@ -6256,21 +6253,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6304,12 +6286,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="145">
     <dxf>
       <fill>
         <patternFill>
@@ -6320,35 +6317,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7353,202 +7322,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7657,10 +7430,10 @@
       <sheetName val="Variables"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
@@ -7678,10 +7451,10 @@
       <sheetName val="Variables"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
@@ -7699,10 +7472,10 @@
       <sheetName val="Variables"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
@@ -7756,7 +7529,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7804,7 +7577,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Denver Train Runs 04122016_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8156,14 +7929,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -8270,11 +8043,11 @@
         <v>42497</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -11499,21 +11272,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G149">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B149">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11567,15 +11340,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="str">
+      <c r="A1" s="86" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-08</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -11682,11 +11455,11 @@
         <v>42498</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -15109,26 +14882,26 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G176 C3:G147">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="38" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="37" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G147">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15182,15 +14955,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="str">
+      <c r="A1" s="86" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-09</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -15297,11 +15070,11 @@
         <v>42499</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -18678,42 +18451,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A146:G174 C3:G145">
-    <cfRule type="expression" dxfId="35" priority="16">
+    <cfRule type="expression" dxfId="31" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17">
+    <cfRule type="expression" dxfId="30" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="18">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B86 A88:B145 B87">
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G86 A88:G145 B87:G87">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>NOT(ISBLANK($G87))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18767,15 +18540,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="str">
+      <c r="A1" s="86" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-10</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -18882,11 +18655,11 @@
         <v>42500</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -22239,42 +22012,42 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A145:G172 C3:D144 F3:G144">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85 A86:B144 A3:B84 E3:E144">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:D85 A86:D144 A3:D84 F3:G144">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>NOT(ISBLANK($G3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>NOT(ISBLANK($G85))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22317,10 +22090,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM172"/>
+  <dimension ref="A1:BM171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22341,15 +22114,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="str">
+      <c r="A1" s="86" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(J3,"YYYY-MM-DD")</f>
         <v>Eagle P3 System Performance - 2016-05-11</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -22456,11 +22229,11 @@
         <v>42501</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -22520,8 +22293,8 @@
         <v>7</v>
       </c>
       <c r="K5" s="30">
-        <f>COUNTA(F3:F988)</f>
-        <v>145</v>
+        <f>COUNTA(F3:F987)</f>
+        <v>144</v>
       </c>
       <c r="L5" s="30" t="s">
         <v>8</v>
@@ -22558,10 +22331,10 @@
       </c>
       <c r="K6" s="30">
         <f>K5-SUM(K8:K9)</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L6" s="31">
-        <v>43.178160919117389</v>
+        <v>43.391666666163864</v>
       </c>
       <c r="M6" s="31">
         <v>35.399999998044223</v>
@@ -22595,7 +22368,7 @@
       </c>
       <c r="K7" s="35">
         <f>K6/K5</f>
-        <v>0.97241379310344822</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>8</v>
@@ -22631,7 +22404,7 @@
         <v>160</v>
       </c>
       <c r="K8" s="30">
-        <f>COUNTA(G3:G147)</f>
+        <f>COUNTA(G3:G146)</f>
         <v>4</v>
       </c>
       <c r="L8" s="32" t="s">
@@ -23108,7 +22881,7 @@
         <v>4013</v>
       </c>
       <c r="C30" s="50">
-        <v>42501.332789351851</v>
+        <v>42501.3280787037</v>
       </c>
       <c r="D30" s="23">
         <v>42501.358599537038</v>
@@ -23117,2490 +22890,2480 @@
         <v>1696</v>
       </c>
       <c r="F30" s="20">
-        <v>2.5810185186855961E-2</v>
+        <v>3.0520833337504882E-2</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B31" s="6">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C31" s="50">
-        <v>42501.3280787037</v>
+        <v>42501.300555555557</v>
       </c>
       <c r="D31" s="23">
-        <v>42501.358599537038</v>
+        <v>42501.328668981485</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>1697</v>
       </c>
       <c r="F31" s="20">
-        <v>3.0520833337504882E-2</v>
+        <v>2.8113425927585922E-2</v>
       </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B32" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C32" s="50">
-        <v>42501.300555555557</v>
+        <v>42501.339039351849</v>
       </c>
       <c r="D32" s="23">
-        <v>42501.328668981485</v>
+        <v>42501.367222222223</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>1698</v>
       </c>
       <c r="F32" s="20">
-        <v>2.8113425927585922E-2</v>
+        <v>2.8182870373711921E-2</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B33" s="6">
-        <v>4010</v>
+        <v>4040</v>
       </c>
       <c r="C33" s="50">
-        <v>42501.339039351849</v>
+        <v>42501.310891203706</v>
       </c>
       <c r="D33" s="23">
-        <v>42501.367222222223</v>
+        <v>42501.33829861111</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>1699</v>
       </c>
       <c r="F33" s="20">
-        <v>2.8182870373711921E-2</v>
+        <v>2.7407407404098194E-2</v>
       </c>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B34" s="6">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C34" s="50">
-        <v>42501.310891203706</v>
+        <v>42501.350266203706</v>
       </c>
       <c r="D34" s="23">
-        <v>42501.33829861111</v>
+        <v>42501.379108796296</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>1700</v>
       </c>
       <c r="F34" s="20">
-        <v>2.7407407404098194E-2</v>
+        <v>2.884259259008104E-2</v>
       </c>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B35" s="6">
-        <v>4039</v>
+        <v>4007</v>
       </c>
       <c r="C35" s="50">
-        <v>42501.350266203706</v>
+        <v>42501.320659722223</v>
       </c>
       <c r="D35" s="23">
-        <v>42501.379108796296</v>
+        <v>42501.348402777781</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>1701</v>
       </c>
       <c r="F35" s="20">
-        <v>2.884259259008104E-2</v>
+        <v>2.7743055557948537E-2</v>
       </c>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B36" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C36" s="50">
-        <v>42501.320659722223</v>
+        <v>42501.356365740743</v>
       </c>
       <c r="D36" s="23">
-        <v>42501.348402777781</v>
+        <v>42501.387418981481</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>1702</v>
       </c>
       <c r="F36" s="20">
-        <v>2.7743055557948537E-2</v>
+        <v>3.1053240738401655E-2</v>
       </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B37" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C37" s="50">
-        <v>42501.356365740743</v>
+        <v>42501.330821759257</v>
       </c>
       <c r="D37" s="23">
-        <v>42501.387418981481</v>
+        <v>42501.358194444445</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>1703</v>
       </c>
       <c r="F37" s="20">
-        <v>3.1053240738401655E-2</v>
+        <v>2.7372685188311152E-2</v>
       </c>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B38" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C38" s="50">
-        <v>42501.330821759257</v>
+        <v>42501.367939814816</v>
       </c>
       <c r="D38" s="23">
-        <v>42501.358194444445</v>
+        <v>42501.398252314815</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>1704</v>
       </c>
       <c r="F38" s="20">
-        <v>2.7372685188311152E-2</v>
+        <v>3.0312499999126885E-2</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B39" s="6">
-        <v>4032</v>
+        <v>4024</v>
       </c>
       <c r="C39" s="50">
-        <v>42501.367939814816</v>
+        <v>42501.339745370373</v>
       </c>
       <c r="D39" s="23">
-        <v>42501.398252314815</v>
+        <v>42501.368483796294</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>1705</v>
       </c>
       <c r="F39" s="20">
-        <v>3.0312499999126885E-2</v>
+        <v>2.8738425920892041E-2</v>
       </c>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B40" s="6">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="C40" s="50">
-        <v>42501.339745370373</v>
+        <v>42501.378368055557</v>
       </c>
       <c r="D40" s="23">
-        <v>42501.368483796294</v>
+        <v>42501.408541666664</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>1706</v>
       </c>
       <c r="F40" s="20">
-        <v>2.8738425920892041E-2</v>
+        <v>3.0173611106874887E-2</v>
       </c>
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B41" s="6">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="C41" s="50">
-        <v>42501.378368055557</v>
+        <v>42501.353356481479</v>
       </c>
       <c r="D41" s="23">
-        <v>42501.408541666664</v>
+        <v>42501.380104166667</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>1707</v>
       </c>
       <c r="F41" s="20">
-        <v>3.0173611106874887E-2</v>
+        <v>2.6747685187729076E-2</v>
       </c>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B42" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C42" s="50">
-        <v>42501.353356481479</v>
+        <v>42501.39203703704</v>
       </c>
       <c r="D42" s="23">
-        <v>42501.380104166667</v>
+        <v>42501.419131944444</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>1708</v>
       </c>
       <c r="F42" s="20">
-        <v>2.6747685187729076E-2</v>
+        <v>2.7094907403807156E-2</v>
       </c>
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B43" s="6">
-        <v>4030</v>
+        <v>4014</v>
       </c>
       <c r="C43" s="50">
-        <v>42501.39203703704</v>
+        <v>42501.362175925926</v>
       </c>
       <c r="D43" s="23">
-        <v>42501.419131944444</v>
+        <v>42501.389780092592</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>1709</v>
       </c>
       <c r="F43" s="20">
-        <v>2.7094907403807156E-2</v>
+        <v>2.7604166665696539E-2</v>
       </c>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B44" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C44" s="50">
-        <v>42501.362175925926</v>
+        <v>42501.399675925924</v>
       </c>
       <c r="D44" s="23">
-        <v>42501.389780092592</v>
+        <v>42501.429814814815</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>1710</v>
       </c>
       <c r="F44" s="20">
-        <v>2.7604166665696539E-2</v>
+        <v>3.0138888891087845E-2</v>
       </c>
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B45" s="6">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C45" s="50">
-        <v>42501.399675925924</v>
+        <v>42501.370196759257</v>
       </c>
       <c r="D45" s="23">
-        <v>42501.429814814815</v>
+        <v>42501.400891203702</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>1711</v>
       </c>
       <c r="F45" s="20">
-        <v>3.0138888891087845E-2</v>
+        <v>3.0694444445543922E-2</v>
       </c>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B46" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C46" s="50">
-        <v>42501.370196759257</v>
+        <v>42501.412789351853</v>
       </c>
       <c r="D46" s="23">
-        <v>42501.400891203702</v>
+        <v>42501.439953703702</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>1712</v>
       </c>
       <c r="F46" s="20">
-        <v>3.0694444445543922E-2</v>
+        <v>2.7164351849933155E-2</v>
       </c>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B47" s="6">
-        <v>4010</v>
+        <v>4040</v>
       </c>
       <c r="C47" s="50">
-        <v>42501.412789351853</v>
+        <v>42501.38318287037</v>
       </c>
       <c r="D47" s="23">
-        <v>42501.439953703702</v>
+        <v>42501.410682870373</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>1713</v>
       </c>
       <c r="F47" s="20">
-        <v>2.7164351849933155E-2</v>
+        <v>2.7500000003783498E-2</v>
       </c>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B48" s="6">
-        <v>4040</v>
-      </c>
-      <c r="C48" s="50">
-        <v>42501.38318287037</v>
-      </c>
-      <c r="D48" s="23">
-        <v>42501.410682870373</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="A48" s="18" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B48" s="18">
+        <v>4039</v>
+      </c>
+      <c r="C48" s="59">
+        <v>42501.420763888891</v>
+      </c>
+      <c r="D48" s="25">
+        <v>42501.449305555558</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>1714</v>
       </c>
-      <c r="F48" s="20">
-        <v>2.7500000003783498E-2</v>
-      </c>
-      <c r="G48" s="11"/>
+      <c r="F48" s="21">
+        <v>2.8541666666569654E-2</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>1813</v>
+      </c>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B49" s="18">
-        <v>4039</v>
-      </c>
-      <c r="C49" s="59">
-        <v>42501.420763888891</v>
-      </c>
-      <c r="D49" s="25">
-        <v>42501.449305555558</v>
-      </c>
-      <c r="E49" s="18" t="s">
+      <c r="A49" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4007</v>
+      </c>
+      <c r="C49" s="50">
+        <v>42501.390277777777</v>
+      </c>
+      <c r="D49" s="23">
+        <v>42501.420706018522</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>1715</v>
       </c>
-      <c r="F49" s="21">
-        <v>2.8541666666569654E-2</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>1814</v>
-      </c>
+      <c r="F49" s="20">
+        <v>3.0428240745095536E-2</v>
+      </c>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B50" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C50" s="50">
-        <v>42501.390277777777</v>
+        <v>42501.424849537034</v>
       </c>
       <c r="D50" s="23">
-        <v>42501.420706018522</v>
+        <v>42501.465960648151</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>1716</v>
       </c>
       <c r="F50" s="20">
-        <v>3.0428240745095536E-2</v>
+        <v>4.1111111117061228E-2</v>
       </c>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B51" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C51" s="50">
-        <v>42501.424849537034</v>
+        <v>42501.403090277781</v>
       </c>
       <c r="D51" s="23">
-        <v>42501.465960648151</v>
+        <v>42501.433819444443</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>1717</v>
       </c>
       <c r="F51" s="20">
-        <v>4.1111111117061228E-2</v>
+        <v>3.0729166661330964E-2</v>
       </c>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B52" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C52" s="50">
-        <v>42501.403090277781</v>
+        <v>42501.440416666665</v>
       </c>
       <c r="D52" s="23">
-        <v>42501.433819444443</v>
+        <v>42501.471273148149</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>1718</v>
       </c>
       <c r="F52" s="20">
-        <v>3.0729166661330964E-2</v>
+        <v>3.0856481484079268E-2</v>
       </c>
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B53" s="6">
-        <v>4032</v>
+        <v>4024</v>
       </c>
       <c r="C53" s="50">
-        <v>42501.440416666665</v>
+        <v>42501.413182870368</v>
       </c>
       <c r="D53" s="23">
-        <v>42501.471273148149</v>
+        <v>42501.441562499997</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>1719</v>
       </c>
       <c r="F53" s="20">
-        <v>3.0856481484079268E-2</v>
+        <v>2.8379629628034309E-2</v>
       </c>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B54" s="6">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="C54" s="50">
-        <v>42501.413182870368</v>
+        <v>42501.450740740744</v>
       </c>
       <c r="D54" s="23">
-        <v>42501.441562499997</v>
+        <v>42501.481342592589</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>1720</v>
       </c>
       <c r="F54" s="20">
-        <v>2.8379629628034309E-2</v>
+        <v>3.0601851845858619E-2</v>
       </c>
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B55" s="6">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="C55" s="50">
-        <v>42501.450740740744</v>
+        <v>42501.424826388888</v>
       </c>
       <c r="D55" s="23">
-        <v>42501.481342592589</v>
+        <v>42501.452222222222</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>1721</v>
       </c>
       <c r="F55" s="20">
-        <v>3.0601851845858619E-2</v>
+        <v>2.7395833334594499E-2</v>
       </c>
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B56" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C56" s="50">
-        <v>42501.424826388888</v>
+        <v>42501.463125000002</v>
       </c>
       <c r="D56" s="23">
-        <v>42501.452222222222</v>
+        <v>42501.491770833331</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>1722</v>
       </c>
       <c r="F56" s="20">
-        <v>2.7395833334594499E-2</v>
+        <v>2.8645833328482695E-2</v>
       </c>
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B57" s="6">
-        <v>4030</v>
+        <v>4014</v>
       </c>
       <c r="C57" s="50">
-        <v>42501.463125000002</v>
+        <v>42501.437800925924</v>
       </c>
       <c r="D57" s="23">
-        <v>42501.491770833331</v>
+        <v>42501.46261574074</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>1723</v>
       </c>
       <c r="F57" s="20">
-        <v>2.8645833328482695E-2</v>
+        <v>2.4814814816636499E-2</v>
       </c>
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B58" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C58" s="50">
-        <v>42501.437800925924</v>
+        <v>42501.473645833335</v>
       </c>
       <c r="D58" s="23">
-        <v>42501.46261574074</v>
+        <v>42501.50271990741</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>1724</v>
       </c>
       <c r="F58" s="20">
-        <v>2.4814814816636499E-2</v>
+        <v>2.9074074074742384E-2</v>
       </c>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B59" s="6">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C59" s="50">
-        <v>42501.473645833335</v>
+        <v>42501.448055555556</v>
       </c>
       <c r="D59" s="23">
-        <v>42501.50271990741</v>
+        <v>42501.472638888888</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>1725</v>
       </c>
       <c r="F59" s="20">
-        <v>2.9074074074742384E-2</v>
+        <v>2.4583333331975155E-2</v>
       </c>
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B60" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C60" s="50">
-        <v>42501.448055555556</v>
+        <v>42501.482754629629</v>
       </c>
       <c r="D60" s="23">
-        <v>42501.472638888888</v>
+        <v>42501.512766203705</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>1726</v>
       </c>
       <c r="F60" s="20">
-        <v>2.4583333331975155E-2</v>
+        <v>3.0011574075615499E-2</v>
       </c>
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B61" s="6">
-        <v>4010</v>
+        <v>4020</v>
       </c>
       <c r="C61" s="50">
-        <v>42501.482754629629</v>
+        <v>42501.458645833336</v>
       </c>
       <c r="D61" s="23">
-        <v>42501.512766203705</v>
+        <v>42501.484155092592</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>1727</v>
       </c>
       <c r="F61" s="20">
-        <v>3.0011574075615499E-2</v>
+        <v>2.5509259256068617E-2</v>
       </c>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B62" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C62" s="50">
-        <v>42501.458645833336</v>
+        <v>42501.495173611111</v>
       </c>
       <c r="D62" s="23">
-        <v>42501.484155092592</v>
+        <v>42501.523356481484</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>1728</v>
       </c>
       <c r="F62" s="20">
-        <v>2.5509259256068617E-2</v>
+        <v>2.8182870373711921E-2</v>
       </c>
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B63" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C63" s="50">
-        <v>42501.495173611111</v>
+        <v>42501.468344907407</v>
       </c>
       <c r="D63" s="23">
-        <v>42501.523356481484</v>
+        <v>42501.49359953704</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>1729</v>
       </c>
       <c r="F63" s="20">
-        <v>2.8182870373711921E-2</v>
+        <v>2.5254629632399883E-2</v>
       </c>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B64" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C64" s="50">
-        <v>42501.468344907407</v>
+        <v>42501.505358796298</v>
       </c>
       <c r="D64" s="23">
-        <v>42501.49359953704</v>
+        <v>42501.53334490741</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>1730</v>
       </c>
       <c r="F64" s="20">
-        <v>2.5254629632399883E-2</v>
+        <v>2.7986111112113576E-2</v>
       </c>
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B65" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C65" s="50">
-        <v>42501.505358796298</v>
+        <v>42501.474606481483</v>
       </c>
       <c r="D65" s="23">
-        <v>42501.53334490741</v>
+        <v>42501.504699074074</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>1731</v>
       </c>
       <c r="F65" s="20">
-        <v>2.7986111112113576E-2</v>
+        <v>3.0092592591245193E-2</v>
       </c>
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B66" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C66" s="50">
-        <v>42501.474606481483</v>
+        <v>42501.510416666664</v>
       </c>
       <c r="D66" s="23">
-        <v>42501.504699074074</v>
+        <v>42501.544629629629</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>1732</v>
       </c>
       <c r="F66" s="20">
-        <v>3.0092592591245193E-2</v>
+        <v>3.4212962964375038E-2</v>
       </c>
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B67" s="6">
-        <v>4032</v>
+        <v>4024</v>
       </c>
       <c r="C67" s="50">
-        <v>42501.510416666664</v>
+        <v>42501.486585648148</v>
       </c>
       <c r="D67" s="23">
-        <v>42501.544629629629</v>
+        <v>42501.514155092591</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>1733</v>
       </c>
       <c r="F67" s="20">
-        <v>3.4212962964375038E-2</v>
+        <v>2.7569444442633539E-2</v>
       </c>
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B68" s="6">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="C68" s="50">
-        <v>42501.486585648148</v>
+        <v>42501.520578703705</v>
       </c>
       <c r="D68" s="23">
-        <v>42501.514155092591</v>
+        <v>42501.554652777777</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>1734</v>
       </c>
       <c r="F68" s="20">
-        <v>2.7569444442633539E-2</v>
+        <v>3.407407407212304E-2</v>
       </c>
       <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B69" s="6">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="C69" s="50">
-        <v>42501.520578703705</v>
+        <v>42501.49627314815</v>
       </c>
       <c r="D69" s="23">
-        <v>42501.554652777777</v>
+        <v>42501.526122685187</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>1735</v>
       </c>
       <c r="F69" s="20">
-        <v>3.407407407212304E-2</v>
+        <v>2.9849537037080154E-2</v>
       </c>
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B70" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C70" s="50">
-        <v>42501.49627314815</v>
+        <v>42501.533703703702</v>
       </c>
       <c r="D70" s="23">
-        <v>42501.526122685187</v>
+        <v>42501.564884259256</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>1736</v>
       </c>
       <c r="F70" s="20">
-        <v>2.9849537037080154E-2</v>
+        <v>3.1180555553874001E-2</v>
       </c>
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B71" s="6">
-        <v>4030</v>
+        <v>4014</v>
       </c>
       <c r="C71" s="50">
-        <v>42501.533703703702</v>
+        <v>42501.507337962961</v>
       </c>
       <c r="D71" s="23">
-        <v>42501.564884259256</v>
+        <v>42501.537361111114</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>1737</v>
       </c>
       <c r="F71" s="20">
-        <v>3.1180555553874001E-2</v>
+        <v>3.0023148152395152E-2</v>
       </c>
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B72" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C72" s="50">
-        <v>42501.507337962961</v>
+        <v>42501.547060185185</v>
       </c>
       <c r="D72" s="23">
-        <v>42501.537361111114</v>
+        <v>42501.575983796298</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>1738</v>
       </c>
       <c r="F72" s="20">
-        <v>3.0023148152395152E-2</v>
+        <v>2.8923611112986691E-2</v>
       </c>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B73" s="6">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C73" s="50">
-        <v>42501.547060185185</v>
+        <v>42501.515208333331</v>
       </c>
       <c r="D73" s="23">
-        <v>42501.575983796298</v>
+        <v>42501.546273148146</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>1739</v>
       </c>
       <c r="F73" s="20">
-        <v>2.8923611112986691E-2</v>
+        <v>3.1064814815181307E-2</v>
       </c>
       <c r="G73" s="11"/>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B74" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C74" s="50">
-        <v>42501.515208333331</v>
+        <v>42501.555138888885</v>
       </c>
       <c r="D74" s="23">
-        <v>42501.546273148146</v>
+        <v>42501.585763888892</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>1740</v>
       </c>
       <c r="F74" s="20">
-        <v>3.1064814815181307E-2</v>
+        <v>3.0625000006693881E-2</v>
       </c>
       <c r="G74" s="11"/>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B75" s="6">
-        <v>4010</v>
+        <v>4020</v>
       </c>
       <c r="C75" s="50">
-        <v>42501.555138888885</v>
+        <v>42501.529016203705</v>
       </c>
       <c r="D75" s="23">
-        <v>42501.585763888892</v>
+        <v>42501.557638888888</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>1741</v>
       </c>
       <c r="F75" s="20">
-        <v>3.0625000006693881E-2</v>
+        <v>2.8622685182199348E-2</v>
       </c>
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B76" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C76" s="50">
-        <v>42501.529016203705</v>
+        <v>42501.569537037038</v>
       </c>
       <c r="D76" s="23">
-        <v>42501.557638888888</v>
+        <v>42501.598171296297</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>1742</v>
       </c>
       <c r="F76" s="20">
-        <v>2.8622685182199348E-2</v>
+        <v>2.8634259258979E-2</v>
       </c>
       <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B77" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C77" s="50">
-        <v>42501.569537037038</v>
+        <v>42501.53875</v>
       </c>
       <c r="D77" s="23">
-        <v>42501.598171296297</v>
+        <v>42501.566354166665</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>1743</v>
       </c>
       <c r="F77" s="20">
-        <v>2.8634259258979E-2</v>
+        <v>2.7604166665696539E-2</v>
       </c>
       <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B78" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C78" s="50">
-        <v>42501.53875</v>
+        <v>42501.57739583333</v>
       </c>
       <c r="D78" s="23">
-        <v>42501.566354166665</v>
+        <v>42501.606064814812</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>1744</v>
       </c>
       <c r="F78" s="20">
-        <v>2.7604166665696539E-2</v>
+        <v>2.8668981482042E-2</v>
       </c>
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B79" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C79" s="50">
-        <v>42501.57739583333</v>
+        <v>42501.547337962962</v>
       </c>
       <c r="D79" s="23">
-        <v>42501.606064814812</v>
+        <v>42501.578252314815</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>1745</v>
       </c>
       <c r="F79" s="20">
-        <v>2.8668981482042E-2</v>
+        <v>3.0914351853425615E-2</v>
       </c>
       <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B80" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C80" s="50">
-        <v>42501.547337962962</v>
+        <v>42501.582905092589</v>
       </c>
       <c r="D80" s="23">
-        <v>42501.578252314815</v>
+        <v>42501.61787037037</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>1746</v>
       </c>
       <c r="F80" s="20">
-        <v>3.0914351853425615E-2</v>
+        <v>3.496527778042946E-2</v>
       </c>
       <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B81" s="6">
-        <v>4032</v>
+        <v>4024</v>
       </c>
       <c r="C81" s="50">
-        <v>42501.582905092589</v>
+        <v>42501.557997685188</v>
       </c>
       <c r="D81" s="23">
-        <v>42501.61787037037</v>
+        <v>42501.58734953704</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>1747</v>
       </c>
       <c r="F81" s="20">
-        <v>3.496527778042946E-2</v>
+        <v>2.9351851851970423E-2</v>
       </c>
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B82" s="6">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="C82" s="50">
-        <v>42501.557997685188</v>
+        <v>42501.597800925927</v>
       </c>
       <c r="D82" s="23">
-        <v>42501.58734953704</v>
+        <v>42501.628344907411</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>1748</v>
       </c>
       <c r="F82" s="20">
-        <v>2.9351851851970423E-2</v>
+        <v>3.054398148378823E-2</v>
       </c>
       <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B83" s="6">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="C83" s="50">
-        <v>42501.597800925927</v>
+        <v>42501.570034722223</v>
       </c>
       <c r="D83" s="23">
-        <v>42501.628344907411</v>
+        <v>42501.598726851851</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>1749</v>
       </c>
       <c r="F83" s="20">
-        <v>3.054398148378823E-2</v>
+        <v>2.8692129628325347E-2</v>
       </c>
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B84" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C84" s="50">
-        <v>42501.570034722223</v>
+        <v>42501.606550925928</v>
       </c>
       <c r="D84" s="23">
-        <v>42501.598726851851</v>
+        <v>42501.638784722221</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>1750</v>
       </c>
       <c r="F84" s="20">
-        <v>2.8692129628325347E-2</v>
+        <v>3.2233796293439809E-2</v>
       </c>
       <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B85" s="6">
-        <v>4030</v>
+        <v>4014</v>
       </c>
       <c r="C85" s="50">
-        <v>42501.606550925928</v>
+        <v>42501.579780092594</v>
       </c>
       <c r="D85" s="23">
-        <v>42501.638784722221</v>
+        <v>42501.608726851853</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>1751</v>
       </c>
       <c r="F85" s="20">
-        <v>3.2233796293439809E-2</v>
+        <v>2.8946759259270038E-2</v>
       </c>
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B86" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C86" s="50">
-        <v>42501.579780092594</v>
+        <v>42501.621493055558</v>
       </c>
       <c r="D86" s="23">
-        <v>42501.608726851853</v>
+        <v>42501.650833333333</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>1752</v>
       </c>
       <c r="F86" s="20">
-        <v>2.8946759259270038E-2</v>
+        <v>2.9340277775190771E-2</v>
       </c>
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B87" s="6">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C87" s="50">
-        <v>42501.621493055558</v>
+        <v>42501.591458333336</v>
       </c>
       <c r="D87" s="23">
-        <v>42501.650833333333</v>
+        <v>42501.619641203702</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>1753</v>
       </c>
       <c r="F87" s="20">
-        <v>2.9340277775190771E-2</v>
+        <v>2.8182870366435964E-2</v>
       </c>
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B88" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C88" s="50">
-        <v>42501.591458333336</v>
+        <v>42501.633194444446</v>
       </c>
       <c r="D88" s="23">
-        <v>42501.619641203702</v>
+        <v>42501.659201388888</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>1754</v>
       </c>
       <c r="F88" s="20">
-        <v>2.8182870366435964E-2</v>
+        <v>2.6006944441178348E-2</v>
       </c>
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B89" s="6">
-        <v>4010</v>
-      </c>
-      <c r="C89" s="50">
-        <v>42501.633194444446</v>
-      </c>
-      <c r="D89" s="23">
-        <v>42501.659201388888</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="A89" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B89" s="18">
+        <v>4020</v>
+      </c>
+      <c r="C89" s="59">
+        <v>42501.609490740739</v>
+      </c>
+      <c r="D89" s="25">
+        <v>42501.631886574076</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>1755</v>
       </c>
-      <c r="F89" s="20">
-        <v>2.6006944441178348E-2</v>
-      </c>
-      <c r="G89" s="11"/>
+      <c r="F89" s="21">
+        <v>2.2395833337213844E-2</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>1814</v>
+      </c>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B90" s="18">
-        <v>4020</v>
-      </c>
-      <c r="C90" s="59">
-        <v>42501.609490740739</v>
-      </c>
-      <c r="D90" s="25">
-        <v>42501.631886574076</v>
-      </c>
-      <c r="E90" s="18" t="s">
+      <c r="A90" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B90" s="6">
+        <v>4019</v>
+      </c>
+      <c r="C90" s="50">
+        <v>42501.638506944444</v>
+      </c>
+      <c r="D90" s="23">
+        <v>42501.672511574077</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>1756</v>
       </c>
-      <c r="F90" s="21">
-        <v>2.2395833337213844E-2</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>1815</v>
-      </c>
+      <c r="F90" s="20">
+        <v>3.4004629633272998E-2</v>
+      </c>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B91" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C91" s="50">
-        <v>42501.638506944444</v>
+        <v>42501.609305555554</v>
       </c>
       <c r="D91" s="23">
-        <v>42501.672511574077</v>
+        <v>42501.639456018522</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>1757</v>
       </c>
       <c r="F91" s="20">
-        <v>3.4004629633272998E-2</v>
+        <v>3.0150462967867497E-2</v>
       </c>
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B92" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C92" s="50">
-        <v>42501.609305555554</v>
+        <v>42501.651041666664</v>
       </c>
       <c r="D92" s="23">
-        <v>42501.639456018522</v>
+        <v>42501.679537037038</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>1758</v>
       </c>
       <c r="F92" s="20">
-        <v>3.0150462967867497E-2</v>
+        <v>2.849537037400296E-2</v>
       </c>
       <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B93" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C93" s="50">
-        <v>42501.651041666664</v>
+        <v>42501.620648148149</v>
       </c>
       <c r="D93" s="23">
-        <v>42501.679537037038</v>
+        <v>42501.651053240741</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>1759</v>
       </c>
       <c r="F93" s="20">
-        <v>2.849537037400296E-2</v>
+        <v>3.0405092591536231E-2</v>
       </c>
       <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B94" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C94" s="50">
-        <v>42501.620648148149</v>
+        <v>42501.656099537038</v>
       </c>
       <c r="D94" s="23">
-        <v>42501.651053240741</v>
+        <v>42501.690717592595</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>1760</v>
       </c>
       <c r="F94" s="20">
-        <v>3.0405092591536231E-2</v>
+        <v>3.4618055557075422E-2</v>
       </c>
       <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B95" s="6">
-        <v>4032</v>
+        <v>4024</v>
       </c>
       <c r="C95" s="50">
-        <v>42501.656099537038</v>
+        <v>42501.631168981483</v>
       </c>
       <c r="D95" s="23">
-        <v>42501.690717592595</v>
+        <v>42501.660254629627</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>1761</v>
       </c>
       <c r="F95" s="20">
-        <v>3.4618055557075422E-2</v>
+        <v>2.9085648144246079E-2</v>
       </c>
       <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B96" s="6">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="C96" s="50">
-        <v>42501.631168981483</v>
+        <v>42501.668506944443</v>
       </c>
       <c r="D96" s="23">
-        <v>42501.660254629627</v>
+        <v>42501.70144675926</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>1762</v>
       </c>
       <c r="F96" s="20">
-        <v>2.9085648144246079E-2</v>
+        <v>3.2939814816927537E-2</v>
       </c>
       <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B97" s="6">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="C97" s="50">
-        <v>42501.668506944443</v>
+        <v>42501.643425925926</v>
       </c>
       <c r="D97" s="23">
-        <v>42501.70144675926</v>
+        <v>42501.670914351853</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>1763</v>
       </c>
       <c r="F97" s="20">
-        <v>3.2939814816927537E-2</v>
+        <v>2.7488425927003846E-2</v>
       </c>
       <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B98" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C98" s="50">
-        <v>42501.643425925926</v>
+        <v>42501.680104166669</v>
       </c>
       <c r="D98" s="23">
-        <v>42501.670914351853</v>
+        <v>42501.711122685185</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>1764</v>
       </c>
       <c r="F98" s="20">
-        <v>2.7488425927003846E-2</v>
+        <v>3.1018518515338656E-2</v>
       </c>
       <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B99" s="6">
-        <v>4030</v>
+        <v>4014</v>
       </c>
       <c r="C99" s="50">
-        <v>42501.680104166669</v>
+        <v>42501.654618055552</v>
       </c>
       <c r="D99" s="23">
-        <v>42501.711122685185</v>
+        <v>42501.681666666664</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>1765</v>
       </c>
       <c r="F99" s="20">
-        <v>3.1018518515338656E-2</v>
+        <v>2.7048611111240461E-2</v>
       </c>
       <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B100" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C100" s="50">
-        <v>42501.654618055552</v>
+        <v>42501.693148148152</v>
       </c>
       <c r="D100" s="23">
-        <v>42501.681666666664</v>
+        <v>42501.721967592595</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>1766</v>
       </c>
       <c r="F100" s="20">
-        <v>2.7048611111240461E-2</v>
+        <v>2.8819444443797693E-2</v>
       </c>
       <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B101" s="6">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C101" s="50">
-        <v>42501.693148148152</v>
+        <v>42501.663206018522</v>
       </c>
       <c r="D101" s="23">
-        <v>42501.721967592595</v>
+        <v>42501.691979166666</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>1767</v>
       </c>
       <c r="F101" s="20">
-        <v>2.8819444443797693E-2</v>
+        <v>2.8773148143955041E-2</v>
       </c>
       <c r="G101" s="11"/>
     </row>
     <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B102" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C102" s="50">
-        <v>42501.663206018522</v>
+        <v>42501.701331018521</v>
       </c>
       <c r="D102" s="23">
-        <v>42501.691979166666</v>
+        <v>42501.731446759259</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>1768</v>
       </c>
       <c r="F102" s="20">
-        <v>2.8773148143955041E-2</v>
+        <v>3.011574073752854E-2</v>
       </c>
       <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B103" s="6">
-        <v>4010</v>
+        <v>4020</v>
       </c>
       <c r="C103" s="50">
-        <v>42501.701331018521</v>
+        <v>42501.676435185182</v>
       </c>
       <c r="D103" s="23">
-        <v>42501.731446759259</v>
+        <v>42501.704062500001</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>1769</v>
       </c>
       <c r="F103" s="20">
-        <v>3.011574073752854E-2</v>
+        <v>2.7627314819255844E-2</v>
       </c>
       <c r="G103" s="11"/>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B104" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C104" s="50">
-        <v>42501.676435185182</v>
+        <v>42501.711365740739</v>
       </c>
       <c r="D104" s="23">
-        <v>42501.704062500001</v>
+        <v>42501.744583333333</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>1770</v>
       </c>
       <c r="F104" s="20">
-        <v>2.7627314819255844E-2</v>
+        <v>3.3217592594155576E-2</v>
       </c>
       <c r="G104" s="11"/>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B105" s="6">
-        <v>4019</v>
+        <v>4007</v>
       </c>
       <c r="C105" s="50">
-        <v>42501.711365740739</v>
+        <v>42501.684062499997</v>
       </c>
       <c r="D105" s="23">
-        <v>42501.744583333333</v>
+        <v>42501.712256944447</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>1771</v>
       </c>
       <c r="F105" s="20">
-        <v>3.3217592594155576E-2</v>
+        <v>2.8194444450491574E-2</v>
       </c>
       <c r="G105" s="11"/>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B106" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C106" s="50">
-        <v>42501.684062499997</v>
+        <v>42501.724027777775</v>
       </c>
       <c r="D106" s="23">
-        <v>42501.712256944447</v>
+        <v>42501.751956018517</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>1772</v>
       </c>
       <c r="F106" s="20">
-        <v>2.8194444450491574E-2</v>
+        <v>2.792824074276723E-2</v>
       </c>
       <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B107" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C107" s="50">
-        <v>42501.724027777775</v>
+        <v>42501.694155092591</v>
       </c>
       <c r="D107" s="23">
-        <v>42501.751956018517</v>
+        <v>42501.723865740743</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>1773</v>
       </c>
       <c r="F107" s="20">
-        <v>2.792824074276723E-2</v>
+        <v>2.9710648152104113E-2</v>
       </c>
       <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B108" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C108" s="50">
-        <v>42501.694155092591</v>
+        <v>42501.726574074077</v>
       </c>
       <c r="D108" s="23">
-        <v>42501.723865740743</v>
+        <v>42501.763495370367</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>1774</v>
       </c>
       <c r="F108" s="20">
-        <v>2.9710648152104113E-2</v>
+        <v>3.6921296290529426E-2</v>
       </c>
       <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B109" s="6">
-        <v>4032</v>
+        <v>4040</v>
       </c>
       <c r="C109" s="50">
-        <v>42501.726574074077</v>
+        <v>42501.707395833335</v>
       </c>
       <c r="D109" s="23">
-        <v>42501.763495370367</v>
+        <v>42501.735046296293</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>1775</v>
       </c>
       <c r="F109" s="20">
-        <v>3.6921296290529426E-2</v>
+        <v>2.7650462958263233E-2</v>
       </c>
       <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B110" s="6">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="C110" s="50">
-        <v>42501.707395833335</v>
+        <v>42501.744074074071</v>
       </c>
       <c r="D110" s="23">
-        <v>42501.735046296293</v>
+        <v>42501.77511574074</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>1776</v>
       </c>
       <c r="F110" s="20">
-        <v>2.7650462958263233E-2</v>
+        <v>3.104166666889796E-2</v>
       </c>
       <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B111" s="6">
-        <v>4039</v>
+        <v>4029</v>
       </c>
       <c r="C111" s="50">
-        <v>42501.744074074071</v>
+        <v>42501.714722222219</v>
       </c>
       <c r="D111" s="23">
-        <v>42501.77511574074</v>
+        <v>42501.744016203702</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>1777</v>
       </c>
       <c r="F111" s="20">
-        <v>3.104166666889796E-2</v>
+        <v>2.9293981482624076E-2</v>
       </c>
       <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B112" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C112" s="50">
-        <v>42501.714722222219</v>
+        <v>42501.752349537041</v>
       </c>
       <c r="D112" s="23">
-        <v>42501.744016203702</v>
+        <v>42501.783888888887</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>1778</v>
       </c>
       <c r="F112" s="20">
-        <v>2.9293981482624076E-2</v>
+        <v>3.1539351846731734E-2</v>
       </c>
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B113" s="6">
-        <v>4030</v>
+        <v>4014</v>
       </c>
       <c r="C113" s="50">
-        <v>42501.752349537041</v>
+        <v>42501.725694444445</v>
       </c>
       <c r="D113" s="23">
-        <v>42501.783888888887</v>
+        <v>42501.753993055558</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>1779</v>
       </c>
       <c r="F113" s="20">
-        <v>3.1539351846731734E-2</v>
+        <v>2.8298611112404615E-2</v>
       </c>
       <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B114" s="6">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C114" s="50">
-        <v>42501.725694444445</v>
+        <v>42501.766446759262</v>
       </c>
       <c r="D114" s="23">
-        <v>42501.753993055558</v>
+        <v>42501.795324074075</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>1780</v>
       </c>
       <c r="F114" s="20">
-        <v>2.8298611112404615E-2</v>
+        <v>2.8877314813144039E-2</v>
       </c>
       <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B115" s="6">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="C115" s="50">
-        <v>42501.766446759262</v>
+        <v>42501.737581018519</v>
       </c>
       <c r="D115" s="23">
-        <v>42501.795324074075</v>
+        <v>42501.765648148146</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>1781</v>
       </c>
       <c r="F115" s="20">
-        <v>2.8877314813144039E-2</v>
+        <v>2.806712962774327E-2</v>
       </c>
       <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B116" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C116" s="50">
-        <v>42501.737581018519</v>
+        <v>42501.774513888886</v>
       </c>
       <c r="D116" s="23">
-        <v>42501.765648148146</v>
+        <v>42501.806805555556</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>1782</v>
       </c>
       <c r="F116" s="20">
-        <v>2.806712962774327E-2</v>
+        <v>3.2291666670062114E-2</v>
       </c>
       <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B117" s="6">
-        <v>4010</v>
+        <v>4020</v>
       </c>
       <c r="C117" s="50">
-        <v>42501.774513888886</v>
+        <v>42501.748240740744</v>
       </c>
       <c r="D117" s="23">
-        <v>42501.806805555556</v>
+        <v>42501.777175925927</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>1783</v>
       </c>
       <c r="F117" s="20">
-        <v>3.2291666670062114E-2</v>
+        <v>2.8935185182490386E-2</v>
       </c>
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B118" s="6">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="C118" s="50">
-        <v>42501.748240740744</v>
+        <v>42501.781956018516</v>
       </c>
       <c r="D118" s="23">
-        <v>42501.777175925927</v>
+        <v>42501.816458333335</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>1784</v>
       </c>
       <c r="F118" s="20">
-        <v>2.8935185182490386E-2</v>
+        <v>3.4502314818382729E-2</v>
       </c>
       <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B119" s="6">
-        <v>4019</v>
-      </c>
-      <c r="C119" s="50">
-        <v>42501.781956018516</v>
-      </c>
-      <c r="D119" s="23">
-        <v>42501.816458333335</v>
-      </c>
-      <c r="E119" s="6" t="s">
+      <c r="A119" s="18" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B119" s="18">
+        <v>4007</v>
+      </c>
+      <c r="C119" s="59">
+        <v>42501.756284722222</v>
+      </c>
+      <c r="D119" s="25">
+        <v>42501.784502314818</v>
+      </c>
+      <c r="E119" s="18" t="s">
         <v>1785</v>
       </c>
-      <c r="F119" s="20">
-        <v>3.4502314818382729E-2</v>
-      </c>
-      <c r="G119" s="11"/>
+      <c r="F119" s="21">
+        <v>2.8217592596774921E-2</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>1815</v>
+      </c>
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B120" s="18">
-        <v>4007</v>
-      </c>
-      <c r="C120" s="59">
-        <v>42501.756284722222</v>
-      </c>
-      <c r="D120" s="25">
-        <v>42501.784502314818</v>
-      </c>
-      <c r="E120" s="18" t="s">
+      <c r="A120" s="6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B120" s="6">
+        <v>4008</v>
+      </c>
+      <c r="C120" s="50">
+        <v>42501.792349537034</v>
+      </c>
+      <c r="D120" s="23">
+        <v>42501.825312499997</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>1786</v>
       </c>
-      <c r="F120" s="21">
-        <v>2.8217592596774921E-2</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>1816</v>
-      </c>
+      <c r="F120" s="20">
+        <v>3.2962962963210884E-2</v>
+      </c>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B121" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C121" s="50">
-        <v>42501.792349537034</v>
+        <v>42501.767476851855</v>
       </c>
       <c r="D121" s="23">
-        <v>42501.825312499997</v>
+        <v>42501.795937499999</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>1787</v>
       </c>
       <c r="F121" s="20">
-        <v>3.2962962963210884E-2</v>
+        <v>2.8460648143664002E-2</v>
       </c>
       <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B122" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C122" s="50">
-        <v>42501.767476851855</v>
+        <v>42501.809479166666</v>
       </c>
       <c r="D122" s="23">
-        <v>42501.795937499999</v>
+        <v>42501.835243055553</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>1788</v>
       </c>
       <c r="F122" s="20">
-        <v>2.8460648143664002E-2</v>
+        <v>2.5763888887013309E-2</v>
       </c>
       <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B123" s="6">
-        <v>4032</v>
+        <v>4029</v>
       </c>
       <c r="C123" s="50">
-        <v>42501.809479166666</v>
+        <v>42501.787233796298</v>
       </c>
       <c r="D123" s="23">
-        <v>42501.835243055553</v>
+        <v>42501.816874999997</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>1789</v>
       </c>
       <c r="F123" s="20">
-        <v>2.5763888887013309E-2</v>
+        <v>2.9641203698702157E-2</v>
       </c>
       <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B124" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C124" s="50">
-        <v>42501.787233796298</v>
+        <v>42501.824699074074</v>
       </c>
       <c r="D124" s="23">
-        <v>42501.816874999997</v>
+        <v>42501.857083333336</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>1790</v>
       </c>
       <c r="F124" s="20">
-        <v>2.9641203698702157E-2</v>
+        <v>3.238425926247146E-2</v>
       </c>
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B125" s="6">
-        <v>4030</v>
+        <v>4009</v>
       </c>
       <c r="C125" s="50">
-        <v>42501.824699074074</v>
+        <v>42501.809432870374</v>
       </c>
       <c r="D125" s="23">
-        <v>42501.857083333336</v>
+        <v>42501.838587962964</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>1791</v>
       </c>
       <c r="F125" s="20">
-        <v>3.238425926247146E-2</v>
+        <v>2.9155092590372078E-2</v>
       </c>
       <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B126" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C126" s="50">
-        <v>42501.809432870374</v>
+        <v>42501.845393518517</v>
       </c>
       <c r="D126" s="23">
-        <v>42501.838587962964</v>
+        <v>42501.877847222226</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>1792</v>
       </c>
       <c r="F126" s="20">
-        <v>2.9155092590372078E-2</v>
+        <v>3.2453703708597459E-2</v>
       </c>
       <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B127" s="6">
-        <v>4010</v>
+        <v>4007</v>
       </c>
       <c r="C127" s="50">
-        <v>42501.845393518517</v>
+        <v>42501.828113425923</v>
       </c>
       <c r="D127" s="23">
-        <v>42501.877847222226</v>
+        <v>42501.858275462961</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>1793</v>
       </c>
       <c r="F127" s="20">
-        <v>3.2453703708597459E-2</v>
+        <v>3.0162037037371192E-2</v>
       </c>
       <c r="G127" s="11"/>
     </row>
     <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B128" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C128" s="50">
-        <v>42501.828113425923</v>
+        <v>42501.862534722219</v>
       </c>
       <c r="D128" s="23">
-        <v>42501.858275462961</v>
+        <v>42501.898333333331</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>1794</v>
       </c>
       <c r="F128" s="20">
-        <v>3.0162037037371192E-2</v>
+        <v>3.5798611112113576E-2</v>
       </c>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B129" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C129" s="50">
-        <v>42501.862534722219</v>
+        <v>42501.851747685185</v>
       </c>
       <c r="D129" s="23">
-        <v>42501.898333333331</v>
+        <v>42501.879537037035</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>1795</v>
       </c>
       <c r="F129" s="20">
-        <v>3.5798611112113576E-2</v>
+        <v>2.7789351850515231E-2</v>
       </c>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B130" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C130" s="50">
-        <v>42501.851747685185</v>
+        <v>42501.893310185187</v>
       </c>
       <c r="D130" s="23">
-        <v>42501.879537037035</v>
+        <v>42501.919872685183</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>1796</v>
       </c>
       <c r="F130" s="20">
-        <v>2.7789351850515231E-2</v>
+        <v>2.6562499995634425E-2</v>
       </c>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B131" s="6">
-        <v>4032</v>
+        <v>4029</v>
       </c>
       <c r="C131" s="50">
-        <v>42501.893310185187</v>
+        <v>42501.859733796293</v>
       </c>
       <c r="D131" s="23">
-        <v>42501.919872685183</v>
+        <v>42501.900347222225</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>1797</v>
       </c>
       <c r="F131" s="20">
-        <v>2.6562499995634425E-2</v>
+        <v>4.0613425931951497E-2</v>
       </c>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B132" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C132" s="50">
-        <v>42501.859733796293</v>
+        <v>42501.909525462965</v>
       </c>
       <c r="D132" s="23">
-        <v>42501.900347222225</v>
+        <v>42501.940694444442</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>1798</v>
       </c>
       <c r="F132" s="20">
-        <v>4.0613425931951497E-2</v>
+        <v>3.1168981477094349E-2</v>
       </c>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B133" s="6">
-        <v>4030</v>
+        <v>4009</v>
       </c>
       <c r="C133" s="50">
-        <v>42501.909525462965</v>
+        <v>42501.892199074071</v>
       </c>
       <c r="D133" s="23">
-        <v>42501.940694444442</v>
+        <v>42501.922291666669</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>1799</v>
       </c>
       <c r="F133" s="20">
-        <v>3.1168981477094349E-2</v>
+        <v>3.0092592598521151E-2</v>
       </c>
       <c r="G133" s="11"/>
     </row>
-    <row r="134" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B134" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C134" s="50">
-        <v>42501.892199074071</v>
+        <v>42501.931168981479</v>
       </c>
       <c r="D134" s="23">
-        <v>42501.922291666669</v>
+        <v>42501.962627314817</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>1800</v>
       </c>
       <c r="F134" s="20">
-        <v>3.0092592598521151E-2</v>
+        <v>3.1458333338377997E-2</v>
       </c>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B135" s="6">
-        <v>4010</v>
+        <v>4007</v>
       </c>
       <c r="C135" s="50">
-        <v>42501.931168981479</v>
+        <v>42501.901828703703</v>
       </c>
       <c r="D135" s="23">
-        <v>42501.962627314817</v>
+        <v>42501.941504629627</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>1801</v>
       </c>
       <c r="F135" s="20">
-        <v>3.1458333338377997E-2</v>
+        <v>3.9675925923802424E-2</v>
       </c>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B136" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C136" s="50">
-        <v>42501.901828703703</v>
+        <v>42501.945787037039</v>
       </c>
       <c r="D136" s="23">
-        <v>42501.941504629627</v>
+        <v>42501.981342592589</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>1802</v>
       </c>
       <c r="F136" s="20">
-        <v>3.9675925923802424E-2</v>
+        <v>3.555555555067258E-2</v>
       </c>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B137" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C137" s="50">
-        <v>42501.945787037039</v>
+        <v>42501.935300925928</v>
       </c>
       <c r="D137" s="23">
-        <v>42501.981342592589</v>
+        <v>42501.963194444441</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>1803</v>
       </c>
       <c r="F137" s="20">
-        <v>3.555555555067258E-2</v>
+        <v>2.7893518512428273E-2</v>
       </c>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B138" s="6">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="C138" s="50">
-        <v>42501.935300925928</v>
+        <v>42501.975914351853</v>
       </c>
       <c r="D138" s="23">
-        <v>42501.963194444441</v>
+        <v>42502.002627314818</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>1804</v>
       </c>
       <c r="F138" s="20">
-        <v>2.7893518512428273E-2</v>
+        <v>2.6712962964666076E-2</v>
       </c>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B139" s="6">
-        <v>4032</v>
+        <v>4029</v>
       </c>
       <c r="C139" s="50">
-        <v>42501.975914351853</v>
+        <v>42501.954027777778</v>
       </c>
       <c r="D139" s="23">
-        <v>42502.002627314818</v>
+        <v>42501.983749999999</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>1805</v>
       </c>
       <c r="F139" s="20">
-        <v>2.6712962964666076E-2</v>
+        <v>2.9722222221607808E-2</v>
       </c>
       <c r="G139" s="11"/>
-    </row>
-    <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B140" s="6">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C140" s="50">
-        <v>42501.954027777778</v>
+        <v>42501.993773148148</v>
       </c>
       <c r="D140" s="23">
-        <v>42501.983749999999</v>
+        <v>42502.0237037037</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>1806</v>
       </c>
       <c r="F140" s="20">
-        <v>2.9722222221607808E-2</v>
+        <v>2.9930555552709848E-2</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B141" s="6">
-        <v>4030</v>
+        <v>4009</v>
       </c>
       <c r="C141" s="50">
-        <v>42501.993773148148</v>
+        <v>42501.974942129629</v>
       </c>
       <c r="D141" s="23">
-        <v>42502.0237037037</v>
+        <v>42502.005925925929</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>1807</v>
       </c>
       <c r="F141" s="20">
-        <v>2.9930555552709848E-2</v>
+        <v>3.0983796299551614E-2</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B142" s="6">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C142" s="50">
-        <v>42501.974942129629</v>
+        <v>42502.014050925929</v>
       </c>
       <c r="D142" s="23">
-        <v>42502.005925925929</v>
+        <v>42502.045127314814</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>1808</v>
       </c>
       <c r="F142" s="20">
-        <v>3.0983796299551614E-2</v>
+        <v>3.1076388884685002E-2</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B143" s="6">
-        <v>4010</v>
+        <v>4007</v>
       </c>
       <c r="C143" s="50">
-        <v>42502.014050925929</v>
+        <v>42501.984166666669</v>
       </c>
       <c r="D143" s="23">
-        <v>42502.045127314814</v>
+        <v>42502.031967592593</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>1809</v>
       </c>
       <c r="F143" s="20">
-        <v>3.1076388884685002E-2</v>
+        <v>4.7800925924093463E-2</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143"/>
-    </row>
-    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I143"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B144" s="6">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C144" s="50">
-        <v>42501.984166666669</v>
+        <v>42502.034537037034</v>
       </c>
       <c r="D144" s="23">
-        <v>42502.031967592593</v>
+        <v>42502.065023148149</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>1810</v>
       </c>
       <c r="F144" s="20">
-        <v>4.7800925924093463E-2</v>
+        <v>3.0486111114441883E-2</v>
       </c>
       <c r="G144" s="11"/>
-      <c r="H144"/>
-      <c r="I144"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B145" s="6">
-        <v>4008</v>
+        <v>4031</v>
       </c>
       <c r="C145" s="50">
-        <v>42502.034537037034</v>
+        <v>42502.020416666666</v>
       </c>
       <c r="D145" s="23">
-        <v>42502.065023148149</v>
+        <v>42502.04824074074</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>1811</v>
       </c>
       <c r="F145" s="20">
-        <v>3.0486111114441883E-2</v>
+        <v>2.7824074073578231E-2</v>
       </c>
       <c r="G145" s="11"/>
+      <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B146" s="6">
-        <v>4031</v>
-      </c>
-      <c r="C146" s="50">
-        <v>42502.020416666666</v>
-      </c>
-      <c r="D146" s="23">
-        <v>42502.04824074074</v>
-      </c>
-      <c r="E146" s="6" t="s">
+    <row r="146" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B146" s="18">
+        <v>4032</v>
+      </c>
+      <c r="C146" s="59">
+        <v>42502.060023148151</v>
+      </c>
+      <c r="D146" s="25">
+        <v>42502.084224537037</v>
+      </c>
+      <c r="E146" s="18" t="s">
         <v>1812</v>
       </c>
-      <c r="F146" s="20">
-        <v>2.7824074073578231E-2</v>
-      </c>
-      <c r="G146" s="11"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B147" s="18">
-        <v>4032</v>
-      </c>
-      <c r="C147" s="59">
-        <v>42502.060023148151</v>
-      </c>
-      <c r="D147" s="25">
-        <v>42502.084224537037</v>
-      </c>
-      <c r="E147" s="18" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F147" s="21">
+      <c r="F146" s="21">
         <v>2.4201388885558117E-2</v>
       </c>
-      <c r="G147" s="19" t="s">
-        <v>1818</v>
-      </c>
-      <c r="H147"/>
-      <c r="L147"/>
-      <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147"/>
+      <c r="G146" s="19" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="11"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="22"/>
@@ -25632,8 +25395,6 @@
       <c r="E150" s="6"/>
       <c r="F150" s="20"/>
       <c r="G150" s="11"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="22"/>
@@ -25824,58 +25585,33 @@
       <c r="F171" s="20"/>
       <c r="G171" s="11"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="22"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A148:G172 D3:D147 F3:G147">
-    <cfRule type="expression" dxfId="12" priority="16">
+  <conditionalFormatting sqref="A147:G171 D3:D146 F3:G146">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="6" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E147">
-    <cfRule type="expression" dxfId="9" priority="14">
+  <conditionalFormatting sqref="E3:E146 A3:C146">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D144 F3:G144 F145:F147">
-    <cfRule type="expression" dxfId="7" priority="12">
+  <conditionalFormatting sqref="F144:F146 D3:D143 F3:G143">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>NOT(ISBLANK($G3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B147">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$P3&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$O3&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C147">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$P3&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25894,7 +25630,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E3:E147</xm:sqref>
+          <xm:sqref>E3:E146</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{39B3E35E-0707-441F-A475-408BEECFEC47}">
@@ -25907,7 +25643,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A3:B147</xm:sqref>
+          <xm:sqref>A3:B146</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{C434D6E9-6F76-4CAC-BFD9-EA2A72ED2BEC}">
@@ -25920,7 +25656,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C3:C147</xm:sqref>
+          <xm:sqref>C3:C146</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -26420,121 +26156,121 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H4">
-    <cfRule type="expression" dxfId="148" priority="37">
+    <cfRule type="expression" dxfId="144" priority="37">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="38">
+    <cfRule type="expression" dxfId="143" priority="38">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="39">
+    <cfRule type="expression" dxfId="142" priority="39">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G8 F5:H6">
-    <cfRule type="expression" dxfId="145" priority="34">
+    <cfRule type="expression" dxfId="141" priority="34">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="35">
+    <cfRule type="expression" dxfId="140" priority="35">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="36">
+    <cfRule type="expression" dxfId="139" priority="36">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E8 H9:H11 H14:H18">
-    <cfRule type="expression" dxfId="142" priority="32">
+    <cfRule type="expression" dxfId="138" priority="32">
       <formula>$Q5&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="33">
+    <cfRule type="expression" dxfId="137" priority="33">
       <formula>$P5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="140" priority="29">
+    <cfRule type="expression" dxfId="136" priority="29">
       <formula>$Q7&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="30">
+    <cfRule type="expression" dxfId="135" priority="30">
       <formula>$P7&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="138" priority="26">
+    <cfRule type="expression" dxfId="134" priority="26">
       <formula>$Q8&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="27">
+    <cfRule type="expression" dxfId="133" priority="27">
       <formula>$P8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G11">
-    <cfRule type="expression" dxfId="136" priority="22">
+    <cfRule type="expression" dxfId="132" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="23">
+    <cfRule type="expression" dxfId="131" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="24">
+    <cfRule type="expression" dxfId="130" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:E11">
-    <cfRule type="expression" dxfId="133" priority="20">
+    <cfRule type="expression" dxfId="129" priority="20">
       <formula>$Q9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="21">
+    <cfRule type="expression" dxfId="128" priority="21">
       <formula>$P9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:G13">
-    <cfRule type="expression" dxfId="131" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="17">
+    <cfRule type="expression" dxfId="126" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="18">
+    <cfRule type="expression" dxfId="125" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:E13">
-    <cfRule type="expression" dxfId="128" priority="14">
+    <cfRule type="expression" dxfId="124" priority="14">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="15">
+    <cfRule type="expression" dxfId="123" priority="15">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="126" priority="11">
+    <cfRule type="expression" dxfId="122" priority="11">
       <formula>$Q12&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="12">
+    <cfRule type="expression" dxfId="121" priority="12">
       <formula>$P12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="124" priority="8">
+    <cfRule type="expression" dxfId="120" priority="8">
       <formula>$Q13&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="9">
+    <cfRule type="expression" dxfId="119" priority="9">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G18">
-    <cfRule type="expression" dxfId="122" priority="4">
+    <cfRule type="expression" dxfId="118" priority="4">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="5">
+    <cfRule type="expression" dxfId="117" priority="5">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="6">
+    <cfRule type="expression" dxfId="116" priority="6">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:E18">
-    <cfRule type="expression" dxfId="119" priority="2">
+    <cfRule type="expression" dxfId="115" priority="2">
       <formula>$Q14&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="3">
+    <cfRule type="expression" dxfId="114" priority="3">
       <formula>$P14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26657,8 +26393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26672,115 +26408,115 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="78">
         <f>'2016-05-01 Train Runs'!K6</f>
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="78">
         <f>'2016-05-02 Train Runs'!K6</f>
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="78">
         <f>'2016-05-03 Train Runs'!K6</f>
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="78">
         <f>'2016-05-04 Train Runs'!K6</f>
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="78">
         <f>'2016-05-05 Train Runs'!K6</f>
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="78">
         <f>'2016-05-06 Train Runs'!K6</f>
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="78">
         <f>'2016-05-07 Train Runs'!K6</f>
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="78">
         <f>'2016-05-08 Train Runs'!K6</f>
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="77" t="s">
         <v>1374</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="79">
         <f>C84</f>
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="77" t="s">
         <v>1523</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="79">
         <f>C92</f>
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C13" s="84">
+      <c r="B13" s="77" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C13" s="79">
         <f>$C$99</f>
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="81">
         <f>SUM(C3:C12)</f>
         <v>1390</v>
       </c>
@@ -26791,11 +26527,11 @@
         <v>42491</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34"/>
@@ -26928,11 +26664,11 @@
         <v>42492</v>
       </c>
       <c r="C25" s="57"/>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="34"/>
@@ -27065,11 +26801,11 @@
         <v>42493</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
     </row>
     <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="34"/>
@@ -27197,11 +26933,11 @@
         <v>42494</v>
       </c>
       <c r="C41" s="57"/>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="83"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="34"/>
@@ -27329,11 +27065,11 @@
         <v>42495</v>
       </c>
       <c r="C49" s="57"/>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="72"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="83"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="34"/>
@@ -27461,11 +27197,11 @@
         <v>42496</v>
       </c>
       <c r="C57" s="57"/>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="71"/>
-      <c r="F57" s="72"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="83"/>
     </row>
     <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="34"/>
@@ -27593,11 +27329,11 @@
         <v>42497</v>
       </c>
       <c r="C65" s="57"/>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="71"/>
-      <c r="F65" s="72"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="83"/>
     </row>
     <row r="66" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="34"/>
@@ -27725,11 +27461,11 @@
         <v>42498</v>
       </c>
       <c r="C73" s="57"/>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="71"/>
-      <c r="F73" s="72"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="83"/>
     </row>
     <row r="74" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="34"/>
@@ -27857,11 +27593,11 @@
         <v>42499</v>
       </c>
       <c r="C81" s="57"/>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="71"/>
-      <c r="F81" s="72"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="83"/>
     </row>
     <row r="82" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="34"/>
@@ -27989,11 +27725,11 @@
         <v>42500</v>
       </c>
       <c r="C89" s="57"/>
-      <c r="D89" s="71" t="s">
+      <c r="D89" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="71"/>
-      <c r="F89" s="72"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="83"/>
     </row>
     <row r="90" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="34"/>
@@ -28116,22 +27852,22 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="78"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
     </row>
     <row r="97" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="74">
+      <c r="B97" s="69">
         <v>42501</v>
       </c>
-      <c r="C97" s="75"/>
-      <c r="D97" s="76" t="s">
+      <c r="C97" s="70"/>
+      <c r="D97" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="76"/>
-      <c r="F97" s="77"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="72"/>
     </row>
     <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="34"/>
@@ -28154,7 +27890,7 @@
       </c>
       <c r="C99" s="30">
         <f>'2016-05-11 Train Runs'!K5</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99" s="30" t="str">
         <f>'2016-05-11 Train Runs'!L5</f>
@@ -28175,11 +27911,11 @@
       </c>
       <c r="C100" s="30">
         <f>'2016-05-11 Train Runs'!K6</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D100" s="31">
         <f>'2016-05-11 Train Runs'!L6</f>
-        <v>43.178160919117389</v>
+        <v>43.391666666163864</v>
       </c>
       <c r="E100" s="31">
         <f>'2016-05-11 Train Runs'!M6</f>
@@ -28196,7 +27932,7 @@
       </c>
       <c r="C101" s="35">
         <f>'2016-05-11 Train Runs'!K7</f>
-        <v>0.97241379310344822</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D101" s="32" t="str">
         <f>'2016-05-11 Train Runs'!L7</f>
@@ -28255,16 +27991,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="D89:F89"/>
     <mergeCell ref="D81:F81"/>
     <mergeCell ref="D73:F73"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -28297,14 +28033,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -28413,11 +28149,11 @@
         <v>42491</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -31879,18 +31615,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="G87">
-    <cfRule type="expression" dxfId="109" priority="1">
+    <cfRule type="expression" dxfId="105" priority="1">
       <formula>$F87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G86 G88:G146 A3:F146">
-    <cfRule type="expression" dxfId="108" priority="22">
+    <cfRule type="expression" dxfId="104" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="23">
+    <cfRule type="expression" dxfId="103" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="24">
+    <cfRule type="expression" dxfId="102" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31925,14 +31661,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -32039,11 +31775,11 @@
         <v>42492</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
@@ -35152,37 +34888,37 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="E54:G61 E53:F53 E63:G141 E62:F62 E3:G52">
-    <cfRule type="expression" dxfId="105" priority="26">
+    <cfRule type="expression" dxfId="101" priority="26">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="27">
+    <cfRule type="expression" dxfId="100" priority="27">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="28">
+    <cfRule type="expression" dxfId="99" priority="28">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D141">
-    <cfRule type="expression" dxfId="102" priority="20">
+    <cfRule type="expression" dxfId="98" priority="20">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="21">
+    <cfRule type="expression" dxfId="97" priority="21">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="100" priority="5">
+    <cfRule type="expression" dxfId="96" priority="5">
       <formula>$P53&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="6">
+    <cfRule type="expression" dxfId="95" priority="6">
       <formula>$O53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="98" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>$P62&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="93" priority="3">
       <formula>$O62&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35262,14 +34998,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -35376,11 +35112,11 @@
         <v>42493</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -38560,21 +38296,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F3 E4:E10 F4:F146">
-    <cfRule type="expression" dxfId="93" priority="16">
+    <cfRule type="expression" dxfId="89" priority="16">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="17">
+    <cfRule type="expression" dxfId="88" priority="17">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D146 G3:G146">
-    <cfRule type="expression" dxfId="90" priority="14">
+    <cfRule type="expression" dxfId="86" priority="14">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="15">
+    <cfRule type="expression" dxfId="85" priority="15">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38628,14 +38364,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -38742,11 +38478,11 @@
         <v>42494</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -41935,45 +41671,45 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A148:G149 E22:G54 E21:F21 E56:G147 E55:F55 E3:G16 E18:G20 E17:F17">
-    <cfRule type="expression" dxfId="87" priority="22">
+    <cfRule type="expression" dxfId="83" priority="22">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="23">
+    <cfRule type="expression" dxfId="82" priority="23">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="24">
+    <cfRule type="expression" dxfId="81" priority="24">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D147">
-    <cfRule type="expression" dxfId="84" priority="20">
+    <cfRule type="expression" dxfId="80" priority="20">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="21">
+    <cfRule type="expression" dxfId="79" priority="21">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="82" priority="8">
+    <cfRule type="expression" dxfId="78" priority="8">
       <formula>$P21&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="9">
+    <cfRule type="expression" dxfId="77" priority="9">
       <formula>$O21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="80" priority="5">
+    <cfRule type="expression" dxfId="76" priority="5">
       <formula>$P55&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>$O55&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>$P17&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>$O17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42066,14 +41802,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -42180,11 +41916,11 @@
         <v>42495</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -45588,21 +45324,21 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A147:G176 E3:F146">
-    <cfRule type="expression" dxfId="72" priority="13">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="14">
+    <cfRule type="expression" dxfId="67" priority="14">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="15">
+    <cfRule type="expression" dxfId="66" priority="15">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D146 G3:G146">
-    <cfRule type="expression" dxfId="69" priority="11">
+    <cfRule type="expression" dxfId="65" priority="11">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45656,14 +45392,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:65" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -45770,11 +45506,11 @@
         <v>42496</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -49183,56 +48919,56 @@
     <mergeCell ref="L3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A151:G175 C149:G150">
-    <cfRule type="expression" dxfId="66" priority="28">
+    <cfRule type="expression" dxfId="62" priority="28">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="29">
+    <cfRule type="expression" dxfId="61" priority="29">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="30">
+    <cfRule type="expression" dxfId="60" priority="30">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:B150">
-    <cfRule type="expression" dxfId="63" priority="26">
+    <cfRule type="expression" dxfId="59" priority="26">
       <formula>$P149&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="27">
+    <cfRule type="expression" dxfId="58" priority="27">
       <formula>$O149&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G148">
-    <cfRule type="expression" dxfId="61" priority="10">
+    <cfRule type="expression" dxfId="57" priority="10">
       <formula>#REF!&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="11">
+    <cfRule type="expression" dxfId="56" priority="11">
       <formula>#REF!&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B148">
-    <cfRule type="expression" dxfId="58" priority="8">
+    <cfRule type="expression" dxfId="54" priority="8">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="53" priority="9">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C148">
-    <cfRule type="expression" dxfId="56" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D148">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs 2016-05-11 (FRA Format).xlsx
+++ b/EC/Train Runs 2016-05-11 (FRA Format).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" tabRatio="845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Summary" sheetId="15" r:id="rId1"/>
@@ -5744,9 +5744,6 @@
     <t>4019/4164</t>
   </si>
   <si>
-    <t>Onboard logs and messaging logs do not indicate any issue. Was this cut out due to operational issues?</t>
-  </si>
-  <si>
     <t>Dispatcher training - couldn't initialize at DUS due to clearance number problems. Ran ATC until 38th (initialized there) to keep schedule</t>
   </si>
   <si>
@@ -5757,6 +5754,9 @@
   </si>
   <si>
     <t>DUS Equipment Failure.</t>
+  </si>
+  <si>
+    <t>after reviewing Onboard, Comms and DTO service logs no issues were found to explain the cutout at Peoria. Only remaing conclusing is operational.</t>
   </si>
 </sst>
 </file>
@@ -22092,8 +22092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23271,7 +23271,7 @@
         <v>2.8541666666569654E-2</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -24134,7 +24134,7 @@
         <v>2.2395833337213844E-2</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -24766,7 +24766,7 @@
         <v>2.8217592596774921E-2</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -25346,7 +25346,7 @@
         <v>2.4201388885558117E-2</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H146"/>
       <c r="L146"/>
@@ -26393,8 +26393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="77" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C13" s="79">
         <f>$C$99</f>
